--- a/output/2020.xlsx
+++ b/output/2020.xlsx
@@ -767,14 +767,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3623.1922172036</v>
+        <v>3423.63788</v>
       </c>
       <c r="I11" t="n">
-        <v>70.43357162475586</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="12">
@@ -800,14 +800,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3623.1922172036</v>
+        <v>3423.63788</v>
       </c>
       <c r="I12" t="n">
-        <v>70.43357162475586</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="13">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I19" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="20">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3623.1922172036</v>
+        <v>3423.63788</v>
       </c>
       <c r="I23" t="n">
-        <v>70.43357162475586</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="24">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I36" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="37">
@@ -1649,14 +1649,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I39" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="40">
@@ -2814,14 +2814,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4163.26107</v>
+        <v>2101.53899</v>
       </c>
       <c r="I76" t="n">
-        <v>72.38654708862305</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="77">
@@ -2946,14 +2946,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I80" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="81">
@@ -3012,14 +3012,14 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>苏农银行</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1714.843948684</v>
+        <v>1394.40364</v>
       </c>
       <c r="I82" t="n">
-        <v>67.81527938842774</v>
+        <v>68.59901504516601</v>
       </c>
     </row>
     <row r="83">
@@ -3606,14 +3606,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I100" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="101">
@@ -3672,14 +3672,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行</t>
+          <t>苏农银行</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1714.843948684</v>
+        <v>1394.40364</v>
       </c>
       <c r="I102" t="n">
-        <v>67.81527938842774</v>
+        <v>68.59901504516601</v>
       </c>
     </row>
     <row r="103">
@@ -3837,14 +3837,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I107" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="108">
@@ -4200,14 +4200,14 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I118" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="119">
@@ -4299,14 +4299,14 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>4157.94132</v>
+        <v>3301.6896269804</v>
       </c>
       <c r="I121" t="n">
-        <v>72.23526229858399</v>
+        <v>71.74719009399413</v>
       </c>
     </row>
     <row r="122">
@@ -4332,14 +4332,14 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I122" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="123">
@@ -4724,14 +4724,14 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>赣州银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2216.9536007124</v>
+        <v>2101.53899</v>
       </c>
       <c r="I136" t="n">
-        <v>72.00168457031251</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="137">
@@ -5644,14 +5644,14 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>5484.01955</v>
+        <v>4586.9281</v>
       </c>
       <c r="I166" t="n">
-        <v>73.60751953125001</v>
+        <v>74.43367462158203</v>
       </c>
     </row>
     <row r="167">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I167" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="168">
@@ -5710,14 +5710,14 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>5484.01955</v>
+        <v>6416.319849394699</v>
       </c>
       <c r="I168" t="n">
-        <v>73.60751953125001</v>
+        <v>74.29471054077149</v>
       </c>
     </row>
     <row r="169">
@@ -5762,14 +5762,14 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>3423.63788</v>
+        <v>2367.6310819006</v>
       </c>
       <c r="I170" t="n">
-        <v>71.45707778930664</v>
+        <v>71.56450576782227</v>
       </c>
     </row>
     <row r="171">
@@ -5795,14 +5795,14 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>3423.63788</v>
+        <v>2367.6310819006</v>
       </c>
       <c r="I171" t="n">
-        <v>71.45707778930664</v>
+        <v>71.56450576782227</v>
       </c>
     </row>
     <row r="172">
@@ -5847,14 +5847,14 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>沧州银行</t>
+          <t>齐商银行</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>1714.6878966328</v>
+        <v>1501.3762431768</v>
       </c>
       <c r="I173" t="n">
-        <v>68.5811279296875</v>
+        <v>67.88224945068359</v>
       </c>
     </row>
     <row r="174">
@@ -5932,14 +5932,14 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>浙江萧山农村商业银行</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>3028.38923</v>
+        <v>2033.4451690982</v>
       </c>
       <c r="I176" t="n">
-        <v>71.4166130065918</v>
+        <v>70.89215087890625</v>
       </c>
     </row>
     <row r="177">
@@ -6234,14 +6234,14 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I186" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="187">
@@ -6753,14 +6753,14 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I203" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="204">
@@ -7380,14 +7380,14 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I222" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="223">
@@ -8040,14 +8040,14 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I242" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="243">
@@ -8106,14 +8106,14 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I244" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="245">
@@ -8238,14 +8238,14 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I248" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="249">
@@ -8667,14 +8667,14 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I261" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="262">
@@ -9904,14 +9904,14 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>常熟银行</t>
+          <t>紫金银行</t>
         </is>
       </c>
       <c r="H304" t="n">
-        <v>2086.85255</v>
+        <v>2176.64378</v>
       </c>
       <c r="I304" t="n">
-        <v>70.82063903808594</v>
+        <v>72.1491569519043</v>
       </c>
     </row>
     <row r="305">
@@ -9989,14 +9989,14 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>乐山市商业银行</t>
+          <t>中山农村商业银行</t>
         </is>
       </c>
       <c r="H307" t="n">
-        <v>1250.85566</v>
+        <v>1447.1524530825</v>
       </c>
       <c r="I307" t="n">
-        <v>69.0506607055664</v>
+        <v>68.341064453125</v>
       </c>
     </row>
     <row r="308">
@@ -10173,14 +10173,14 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H313" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I313" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="314">
@@ -10343,14 +10343,14 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I319" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="320">
@@ -10442,14 +10442,14 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I322" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="323">
@@ -10792,14 +10792,14 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H336" t="n">
-        <v>4163.26107</v>
+        <v>2101.53899</v>
       </c>
       <c r="I336" t="n">
-        <v>72.38654708862305</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="337">
@@ -10891,14 +10891,14 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>3423.63788</v>
+        <v>2367.6310819006</v>
       </c>
       <c r="I339" t="n">
-        <v>71.45707778930664</v>
+        <v>71.56450576782227</v>
       </c>
     </row>
     <row r="340">
@@ -10981,14 +10981,14 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>江苏长江商业银行</t>
+          <t>南充农村商业银行</t>
         </is>
       </c>
       <c r="H343" t="n">
-        <v>347.6997667942</v>
+        <v>325.6494852202</v>
       </c>
       <c r="I343" t="n">
-        <v>65.0604232788086</v>
+        <v>65.16850128173829</v>
       </c>
     </row>
     <row r="344">
@@ -11477,14 +11477,14 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>4157.94132</v>
+        <v>7042.34728</v>
       </c>
       <c r="I361" t="n">
-        <v>72.23526229858399</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="362">
@@ -11666,14 +11666,14 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>4163.26107</v>
+        <v>2101.53899</v>
       </c>
       <c r="I368" t="n">
-        <v>72.38654708862305</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="369">
@@ -11917,14 +11917,14 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>广东顺德农村商业银行</t>
         </is>
       </c>
       <c r="H379" t="n">
-        <v>3498.8397986131</v>
+        <v>3673.1224047853</v>
       </c>
       <c r="I379" t="n">
-        <v>71.55883026123047</v>
+        <v>71.46554641723633</v>
       </c>
     </row>
     <row r="380">
@@ -12016,14 +12016,14 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H382" t="n">
-        <v>4163.26107</v>
+        <v>2101.53899</v>
       </c>
       <c r="I382" t="n">
-        <v>72.38654708862305</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="383">
@@ -12049,14 +12049,14 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H383" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I383" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="384">
@@ -12846,14 +12846,14 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H408" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I408" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="409">
@@ -13773,14 +13773,14 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H437" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I437" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="438">
@@ -14966,14 +14966,14 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H474" t="n">
-        <v>3423.63788</v>
+        <v>2367.6310819006</v>
       </c>
       <c r="I474" t="n">
-        <v>71.45707778930664</v>
+        <v>71.56450576782227</v>
       </c>
     </row>
     <row r="475">
@@ -15433,14 +15433,14 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H489" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I489" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="490">
@@ -15565,14 +15565,14 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H493" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I493" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="494">
@@ -15825,14 +15825,14 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>桂林银行</t>
         </is>
       </c>
       <c r="H503" t="n">
-        <v>2240.66512</v>
+        <v>3769.83513218</v>
       </c>
       <c r="I503" t="n">
-        <v>71.95123977661133</v>
+        <v>71.98142700195312</v>
       </c>
     </row>
     <row r="504">
@@ -17773,14 +17773,14 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H565" t="n">
-        <v>6416.319849394699</v>
+        <v>4564.01199</v>
       </c>
       <c r="I565" t="n">
-        <v>74.29471054077149</v>
+        <v>73.36958847045898</v>
       </c>
     </row>
     <row r="566">
@@ -18207,14 +18207,14 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H579" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I579" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="580">
@@ -18325,14 +18325,14 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H583" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I583" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="584">
@@ -18457,14 +18457,14 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H587" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I587" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="588">
@@ -18655,14 +18655,14 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H593" t="n">
-        <v>5484.01955</v>
+        <v>6416.319849394699</v>
       </c>
       <c r="I593" t="n">
-        <v>73.60751953125001</v>
+        <v>74.29471054077149</v>
       </c>
     </row>
     <row r="594">
@@ -19278,14 +19278,14 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>九台农村商业银行</t>
+          <t>浙江民泰商业银行</t>
         </is>
       </c>
       <c r="H614" t="n">
-        <v>2003.6327</v>
+        <v>1843.6584858766</v>
       </c>
       <c r="I614" t="n">
-        <v>70.35448837280273</v>
+        <v>70.16012344360351</v>
       </c>
     </row>
     <row r="615">
@@ -20104,14 +20104,14 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H642" t="n">
-        <v>4157.94132</v>
+        <v>7042.34728</v>
       </c>
       <c r="I642" t="n">
-        <v>72.23526229858399</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="643">
@@ -20425,14 +20425,14 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I653" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="654">
@@ -20741,14 +20741,14 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>浙江上虞农村商业银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H663" t="n">
-        <v>650.9614746587999</v>
+        <v>1622.7067704564</v>
       </c>
       <c r="I663" t="n">
-        <v>66.77436065673828</v>
+        <v>66.85261154174805</v>
       </c>
     </row>
     <row r="664">
@@ -20774,14 +20774,14 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>浙江上虞农村商业银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H664" t="n">
-        <v>650.9614746587999</v>
+        <v>1622.7067704564</v>
       </c>
       <c r="I664" t="n">
-        <v>66.77436065673828</v>
+        <v>66.85261154174805</v>
       </c>
     </row>
     <row r="665">
@@ -21137,14 +21137,14 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I675" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="676">
@@ -21203,14 +21203,14 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>盛京银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>10379.58375</v>
+        <v>5484.01955</v>
       </c>
       <c r="I677" t="n">
-        <v>74.7919189453125</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="678">
@@ -21519,14 +21519,14 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I687" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="688">
@@ -21769,14 +21769,14 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H695" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I695" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="696">
@@ -21802,14 +21802,14 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H696" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I696" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="697">
@@ -21835,14 +21835,14 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H697" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I697" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="698">
@@ -21934,14 +21934,14 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H700" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I700" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="701">
@@ -22840,14 +22840,14 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>苏州银行</t>
+          <t>中原银行</t>
         </is>
       </c>
       <c r="H730" t="n">
-        <v>3880.68080296</v>
+        <v>7570.14075</v>
       </c>
       <c r="I730" t="n">
-        <v>71.31757507324218</v>
+        <v>71.84711074829102</v>
       </c>
     </row>
     <row r="731">
@@ -23302,14 +23302,14 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>瑞丰银行</t>
+          <t>邯郸银行</t>
         </is>
       </c>
       <c r="H744" t="n">
-        <v>1295.1617202781</v>
+        <v>1833.117540282</v>
       </c>
       <c r="I744" t="n">
-        <v>68.90937576293945</v>
+        <v>68.68833160400391</v>
       </c>
     </row>
     <row r="745">
@@ -23467,14 +23467,14 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H749" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I749" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="750">
@@ -23500,14 +23500,14 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H750" t="n">
-        <v>4157.94132</v>
+        <v>3301.6896269804</v>
       </c>
       <c r="I750" t="n">
-        <v>72.23526229858399</v>
+        <v>71.74719009399413</v>
       </c>
     </row>
     <row r="751">
@@ -23934,14 +23934,14 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H764" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I764" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="765">
@@ -23967,14 +23967,14 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H765" t="n">
-        <v>4157.94132</v>
+        <v>3301.6896269804</v>
       </c>
       <c r="I765" t="n">
-        <v>72.23526229858399</v>
+        <v>71.74719009399413</v>
       </c>
     </row>
     <row r="766">
@@ -24189,14 +24189,14 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H773" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I773" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="774">
@@ -24222,14 +24222,14 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H774" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I774" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="775">
@@ -24633,14 +24633,14 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H789" t="n">
-        <v>5478.13444</v>
+        <v>4586.9281</v>
       </c>
       <c r="I789" t="n">
-        <v>74.07013702392578</v>
+        <v>74.43367462158203</v>
       </c>
     </row>
     <row r="790">
@@ -24666,14 +24666,14 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H790" t="n">
-        <v>4374.4056093012</v>
+        <v>4198.57215</v>
       </c>
       <c r="I790" t="n">
-        <v>73.31181335449219</v>
+        <v>72.61577911376953</v>
       </c>
     </row>
     <row r="791">
@@ -25152,14 +25152,14 @@
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>浙江稠州商业银行</t>
         </is>
       </c>
       <c r="H806" t="n">
-        <v>2871.8261304744</v>
+        <v>2712.1850002446</v>
       </c>
       <c r="I806" t="n">
-        <v>71.84916534423829</v>
+        <v>71.50930480957031</v>
       </c>
     </row>
     <row r="807">
@@ -25643,14 +25643,14 @@
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H823" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I823" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="824">
@@ -25714,14 +25714,14 @@
       </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>朝阳银行</t>
+          <t>凉山农村商业银行</t>
         </is>
       </c>
       <c r="H826" t="n">
-        <v>1052.3074948769</v>
+        <v>809.8696115547999</v>
       </c>
       <c r="I826" t="n">
-        <v>65.94909172058105</v>
+        <v>66.18742141723632</v>
       </c>
     </row>
     <row r="827">
@@ -25780,14 +25780,14 @@
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H828" t="n">
-        <v>4598.27605</v>
+        <v>5197.2085</v>
       </c>
       <c r="I828" t="n">
-        <v>73.25109329223633</v>
+        <v>74.53140640258789</v>
       </c>
     </row>
     <row r="829">
@@ -25912,14 +25912,14 @@
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H832" t="n">
-        <v>4586.9281</v>
+        <v>6524.33674</v>
       </c>
       <c r="I832" t="n">
-        <v>74.43367462158203</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="833">
@@ -25945,14 +25945,14 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H833" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I833" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="834">
@@ -26011,14 +26011,14 @@
       </c>
       <c r="G835" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H835" t="n">
-        <v>4586.9281</v>
+        <v>6524.33674</v>
       </c>
       <c r="I835" t="n">
-        <v>74.43367462158203</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="836">
@@ -26209,14 +26209,14 @@
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H841" t="n">
-        <v>4586.9281</v>
+        <v>6524.33674</v>
       </c>
       <c r="I841" t="n">
-        <v>74.43367462158203</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="842">
@@ -27332,14 +27332,14 @@
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H878" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I878" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="879">
@@ -27634,14 +27634,14 @@
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H888" t="n">
-        <v>4598.27605</v>
+        <v>5197.2085</v>
       </c>
       <c r="I888" t="n">
-        <v>73.25109329223633</v>
+        <v>74.53140640258789</v>
       </c>
     </row>
     <row r="889">
@@ -27667,14 +27667,14 @@
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H889" t="n">
-        <v>4598.27605</v>
+        <v>5197.2085</v>
       </c>
       <c r="I889" t="n">
-        <v>73.25109329223633</v>
+        <v>74.53140640258789</v>
       </c>
     </row>
     <row r="890">
@@ -27700,14 +27700,14 @@
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>成都农村商业银行</t>
         </is>
       </c>
       <c r="H890" t="n">
-        <v>4598.27605</v>
+        <v>5197.2085</v>
       </c>
       <c r="I890" t="n">
-        <v>73.25109329223633</v>
+        <v>74.53140640258789</v>
       </c>
     </row>
     <row r="891">
@@ -27964,14 +27964,14 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H898" t="n">
-        <v>4163.26107</v>
+        <v>2101.53899</v>
       </c>
       <c r="I898" t="n">
-        <v>72.38654708862305</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="899">
@@ -28714,14 +28714,14 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>广州银行</t>
+          <t>贵州银行</t>
         </is>
       </c>
       <c r="H922" t="n">
-        <v>6416.319849394699</v>
+        <v>4564.01199</v>
       </c>
       <c r="I922" t="n">
-        <v>74.29471054077149</v>
+        <v>73.36958847045898</v>
       </c>
     </row>
     <row r="923">
@@ -29148,14 +29148,14 @@
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H936" t="n">
-        <v>11692.57248</v>
+        <v>10292.83654</v>
       </c>
       <c r="I936" t="n">
-        <v>75.76875610351563</v>
+        <v>74.70652618408204</v>
       </c>
     </row>
     <row r="937">
@@ -29214,14 +29214,14 @@
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H938" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I938" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="939">
@@ -29351,14 +29351,14 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>珠海华润银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H943" t="n">
-        <v>2352.2570852331</v>
+        <v>3498.8397986131</v>
       </c>
       <c r="I943" t="n">
-        <v>72.3505729675293</v>
+        <v>71.55883026123047</v>
       </c>
     </row>
     <row r="944">
@@ -29384,14 +29384,14 @@
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>杭州银行</t>
+          <t>北京农村商业银行</t>
         </is>
       </c>
       <c r="H944" t="n">
-        <v>11692.57248</v>
+        <v>10292.83654</v>
       </c>
       <c r="I944" t="n">
-        <v>75.76875610351563</v>
+        <v>74.70652618408204</v>
       </c>
     </row>
     <row r="945">
@@ -29450,14 +29450,14 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H946" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I946" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="947">
@@ -29846,14 +29846,14 @@
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>邯郸银行</t>
+          <t>乐山市商业银行</t>
         </is>
       </c>
       <c r="H958" t="n">
-        <v>1833.117540282</v>
+        <v>1250.85566</v>
       </c>
       <c r="I958" t="n">
-        <v>68.68833160400391</v>
+        <v>69.0506607055664</v>
       </c>
     </row>
     <row r="959">
@@ -29997,14 +29997,14 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H963" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I963" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="964">
@@ -30917,14 +30917,14 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H993" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I993" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="994">
@@ -30983,14 +30983,14 @@
       </c>
       <c r="G995" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>重庆三峡银行</t>
         </is>
       </c>
       <c r="H995" t="n">
-        <v>3423.63788</v>
+        <v>2367.6310819006</v>
       </c>
       <c r="I995" t="n">
-        <v>71.45707778930664</v>
+        <v>71.56450576782227</v>
       </c>
     </row>
     <row r="996">
@@ -31073,14 +31073,14 @@
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H999" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I999" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="1000">
@@ -31106,14 +31106,14 @@
       </c>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1000" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1000" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1001">
@@ -31172,14 +31172,14 @@
       </c>
       <c r="G1002" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1002" t="n">
-        <v>7042.34728</v>
+        <v>5986.03617</v>
       </c>
       <c r="I1002" t="n">
-        <v>72.41959838867187</v>
+        <v>73.77044067382812</v>
       </c>
     </row>
     <row r="1003">
@@ -31356,14 +31356,14 @@
       </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H1008" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I1008" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="1009">
@@ -31460,14 +31460,14 @@
       </c>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1012" t="n">
-        <v>44685.14</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1012" t="n">
-        <v>84.71552276611328</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1013">
@@ -31493,14 +31493,14 @@
       </c>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1013" t="n">
-        <v>44685.14</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1013" t="n">
-        <v>84.71552276611328</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1014">
@@ -31776,14 +31776,14 @@
       </c>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1022" t="n">
-        <v>44685.14</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1022" t="n">
-        <v>84.71552276611328</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1023">
@@ -32409,14 +32409,14 @@
       </c>
       <c r="G1045" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1045" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1045" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1046">
@@ -32442,14 +32442,14 @@
       </c>
       <c r="G1046" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1046" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1046" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1047">
@@ -32659,14 +32659,14 @@
       </c>
       <c r="G1053" t="inlineStr">
         <is>
-          <t>九台农村商业银行</t>
+          <t>浙江民泰商业银行</t>
         </is>
       </c>
       <c r="H1053" t="n">
-        <v>2003.6327</v>
+        <v>1843.6584858766</v>
       </c>
       <c r="I1053" t="n">
-        <v>70.35448837280273</v>
+        <v>70.16012344360351</v>
       </c>
     </row>
     <row r="1054">
@@ -32744,14 +32744,14 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>朝阳银行</t>
+          <t>凉山农村商业银行</t>
         </is>
       </c>
       <c r="H1056" t="n">
-        <v>1052.3074948769</v>
+        <v>809.8696115547999</v>
       </c>
       <c r="I1056" t="n">
-        <v>65.94909172058105</v>
+        <v>66.18742141723632</v>
       </c>
     </row>
     <row r="1057">
@@ -32843,14 +32843,14 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H1059" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I1059" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="1060">
@@ -33008,14 +33008,14 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1064" t="n">
-        <v>13896.75274</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1064" t="n">
-        <v>78.48693618774413</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1065">
@@ -33041,14 +33041,14 @@
       </c>
       <c r="G1065" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1065" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1065" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1066">
@@ -33107,14 +33107,14 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1067" t="n">
-        <v>4198.57215</v>
+        <v>7042.34728</v>
       </c>
       <c r="I1067" t="n">
-        <v>72.61577911376953</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="1068">
@@ -33305,14 +33305,14 @@
       </c>
       <c r="G1073" t="inlineStr">
         <is>
-          <t>朝阳银行</t>
+          <t>凉山农村商业银行</t>
         </is>
       </c>
       <c r="H1073" t="n">
-        <v>1052.3074948769</v>
+        <v>809.8696115547999</v>
       </c>
       <c r="I1073" t="n">
-        <v>65.94909172058105</v>
+        <v>66.18742141723632</v>
       </c>
     </row>
     <row r="1074">
@@ -33437,14 +33437,14 @@
       </c>
       <c r="G1077" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1077" t="n">
-        <v>13896.75274</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1077" t="n">
-        <v>78.48693618774413</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1078">
@@ -33503,14 +33503,14 @@
       </c>
       <c r="G1079" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H1079" t="n">
-        <v>4198.57215</v>
+        <v>2101.53899</v>
       </c>
       <c r="I1079" t="n">
-        <v>72.61577911376953</v>
+        <v>72.16022033691407</v>
       </c>
     </row>
     <row r="1080">
@@ -33994,14 +33994,14 @@
       </c>
       <c r="G1096" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1096" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1096" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1097">
@@ -34027,14 +34027,14 @@
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1097" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1097" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1098">
@@ -34060,14 +34060,14 @@
       </c>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H1098" t="n">
-        <v>10292.83654</v>
+        <v>11359.26443</v>
       </c>
       <c r="I1098" t="n">
-        <v>74.70652618408204</v>
+        <v>74.74439849853516</v>
       </c>
     </row>
     <row r="1099">
@@ -34211,14 +34211,14 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1103" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1103" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1104">
@@ -35154,14 +35154,14 @@
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1132" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I1132" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="1133">
@@ -35418,14 +35418,14 @@
       </c>
       <c r="G1140" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1140" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1140" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1141">
@@ -35451,14 +35451,14 @@
       </c>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1141" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1141" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1142">
@@ -35517,14 +35517,14 @@
       </c>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H1143" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I1143" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="1144">
@@ -37088,14 +37088,14 @@
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H1194" t="n">
-        <v>7570.14075</v>
+        <v>5616.41397</v>
       </c>
       <c r="I1194" t="n">
-        <v>71.84711074829102</v>
+        <v>72.85758819580079</v>
       </c>
     </row>
     <row r="1195">
@@ -37527,14 +37527,14 @@
       </c>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1209" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1209" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1210">
@@ -37560,14 +37560,14 @@
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1210" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1211">
@@ -37886,14 +37886,14 @@
       </c>
       <c r="G1222" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1222" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1222" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1223">
@@ -37938,14 +37938,14 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1224" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1224" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1225">
@@ -38306,14 +38306,14 @@
       </c>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1236" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1236" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1237">
@@ -38589,14 +38589,14 @@
       </c>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1245" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1245" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1246">
@@ -39514,14 +39514,14 @@
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1276" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1276" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1277">
@@ -39547,14 +39547,14 @@
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1277" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1277" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1278">
@@ -39580,14 +39580,14 @@
       </c>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>浙江德清农村商业银行</t>
+          <t>湖州银行</t>
         </is>
       </c>
       <c r="H1278" t="n">
-        <v>568.5145574027</v>
+        <v>854.8446195906</v>
       </c>
       <c r="I1278" t="n">
-        <v>64.96796798706055</v>
+        <v>65.70493278503417</v>
       </c>
     </row>
     <row r="1279">
@@ -39712,14 +39712,14 @@
       </c>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1282" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1282" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1283">
@@ -39896,14 +39896,14 @@
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1288" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1288" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1289">
@@ -40589,14 +40589,14 @@
       </c>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1309" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1309" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1310">
@@ -41094,14 +41094,14 @@
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1326" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1326" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1327">
@@ -41160,14 +41160,14 @@
       </c>
       <c r="G1328" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1328" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1328" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1329">
@@ -41193,14 +41193,14 @@
       </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H1329" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I1329" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="1330">
@@ -41259,14 +41259,14 @@
       </c>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>朝阳银行</t>
+          <t>凉山农村商业银行</t>
         </is>
       </c>
       <c r="H1331" t="n">
-        <v>1052.3074948769</v>
+        <v>809.8696115547999</v>
       </c>
       <c r="I1331" t="n">
-        <v>65.94909172058105</v>
+        <v>66.18742141723632</v>
       </c>
     </row>
     <row r="1332">
@@ -41292,14 +41292,14 @@
       </c>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1332" t="n">
-        <v>13896.75274</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1332" t="n">
-        <v>78.48693618774413</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1333">
@@ -41443,14 +41443,14 @@
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1337" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1337" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1338">
@@ -41561,14 +41561,14 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>汉口银行</t>
         </is>
       </c>
       <c r="H1341" t="n">
-        <v>4163.26107</v>
+        <v>4388.93133</v>
       </c>
       <c r="I1341" t="n">
-        <v>72.38654708862305</v>
+        <v>72.58096771240234</v>
       </c>
     </row>
     <row r="1342">
@@ -42005,14 +42005,14 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>芜湖扬子农村商业银行</t>
+          <t>四川犍为农村商业银行</t>
         </is>
       </c>
       <c r="H1357" t="n">
-        <v>444.5060169601</v>
+        <v>0</v>
       </c>
       <c r="I1357" t="n">
-        <v>63.94534759521484</v>
+        <v>62.79940462112427</v>
       </c>
     </row>
     <row r="1358">
@@ -42104,14 +42104,14 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1360" t="n">
-        <v>5484.01955</v>
+        <v>6416.319849394699</v>
       </c>
       <c r="I1360" t="n">
-        <v>73.60751953125001</v>
+        <v>74.29471054077149</v>
       </c>
     </row>
     <row r="1361">
@@ -42189,14 +42189,14 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1363" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1363" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1364">
@@ -42321,14 +42321,14 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1367" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1367" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1368">
@@ -42690,14 +42690,14 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1382" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1382" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1383">
@@ -42756,14 +42756,14 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1384" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1384" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1385">
@@ -44202,14 +44202,14 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H1438" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I1438" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="1439">
@@ -44632,14 +44632,14 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1454" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1454" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1455">
@@ -44896,14 +44896,14 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1462" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1462" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1463">
@@ -44962,14 +44962,14 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1464" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1464" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1465">
@@ -45146,14 +45146,14 @@
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H1470" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I1470" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="1471">
@@ -46387,14 +46387,14 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1511" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1511" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1512">
@@ -46420,14 +46420,14 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1512" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1512" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1513">
@@ -47019,14 +47019,14 @@
       </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1531" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1531" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1532">
@@ -47052,14 +47052,14 @@
       </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H1532" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I1532" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="1533">
@@ -47741,14 +47741,14 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1555" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1555" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1556">
@@ -47812,14 +47812,14 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1558" t="n">
-        <v>5484.01955</v>
+        <v>6416.319849394699</v>
       </c>
       <c r="I1558" t="n">
-        <v>73.60751953125001</v>
+        <v>74.29471054077149</v>
       </c>
     </row>
     <row r="1559">
@@ -47845,14 +47845,14 @@
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H1559" t="n">
-        <v>10292.83654</v>
+        <v>6524.33674</v>
       </c>
       <c r="I1559" t="n">
-        <v>74.70652618408204</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="1560">
@@ -47911,14 +47911,14 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>广东顺德农村商业银行</t>
         </is>
       </c>
       <c r="H1561" t="n">
-        <v>3498.8397986131</v>
+        <v>3673.1224047853</v>
       </c>
       <c r="I1561" t="n">
-        <v>71.55883026123047</v>
+        <v>71.46554641723633</v>
       </c>
     </row>
     <row r="1562">
@@ -47944,14 +47944,14 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H1562" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I1562" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="1563">
@@ -49171,14 +49171,14 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H1603" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I1603" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="1604">
@@ -49270,14 +49270,14 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>宁波鄞州农村商业银行</t>
+          <t>泉州银行</t>
         </is>
       </c>
       <c r="H1606" t="n">
-        <v>1715.3573924028</v>
+        <v>1288.9519951641</v>
       </c>
       <c r="I1606" t="n">
-        <v>68.5473731994629</v>
+        <v>69.28489151000977</v>
       </c>
     </row>
     <row r="1607">
@@ -49473,14 +49473,14 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H1613" t="n">
-        <v>3623.1922172036</v>
+        <v>3423.63788</v>
       </c>
       <c r="I1613" t="n">
-        <v>70.43357162475586</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="1614">
@@ -49709,14 +49709,14 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1621" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1621" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1622">
@@ -49879,14 +49879,14 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>广东华兴银行</t>
         </is>
       </c>
       <c r="H1627" t="n">
-        <v>4157.94132</v>
+        <v>3301.6896269804</v>
       </c>
       <c r="I1627" t="n">
-        <v>72.23526229858399</v>
+        <v>71.74719009399413</v>
       </c>
     </row>
     <row r="1628">
@@ -50398,14 +50398,14 @@
       </c>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>温州银行</t>
+          <t>浙江稠州商业银行</t>
         </is>
       </c>
       <c r="H1644" t="n">
-        <v>2871.8261304744</v>
+        <v>2712.1850002446</v>
       </c>
       <c r="I1644" t="n">
-        <v>71.84916534423829</v>
+        <v>71.50930480957031</v>
       </c>
     </row>
     <row r="1645">
@@ -50563,14 +50563,14 @@
       </c>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>赣州银行</t>
         </is>
       </c>
       <c r="H1649" t="n">
-        <v>3673.1224047853</v>
+        <v>2216.9536007124</v>
       </c>
       <c r="I1649" t="n">
-        <v>71.46554641723633</v>
+        <v>72.00168457031251</v>
       </c>
     </row>
     <row r="1650">
@@ -50662,14 +50662,14 @@
       </c>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H1652" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I1652" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="1653">
@@ -50728,14 +50728,14 @@
       </c>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>西安银行</t>
+          <t>唐山银行</t>
         </is>
       </c>
       <c r="H1654" t="n">
-        <v>3063.91591</v>
+        <v>2012.4293583305</v>
       </c>
       <c r="I1654" t="n">
-        <v>70.47369689941407</v>
+        <v>70.64308624267578</v>
       </c>
     </row>
     <row r="1655">
@@ -51153,14 +51153,14 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>广东顺德农村商业银行</t>
+          <t>赣州银行</t>
         </is>
       </c>
       <c r="H1669" t="n">
-        <v>3673.1224047853</v>
+        <v>2216.9536007124</v>
       </c>
       <c r="I1669" t="n">
-        <v>71.46554641723633</v>
+        <v>72.00168457031251</v>
       </c>
     </row>
     <row r="1670">
@@ -51568,14 +51568,14 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>浙江萧山农村商业银行</t>
         </is>
       </c>
       <c r="H1682" t="n">
-        <v>3028.38923</v>
+        <v>2033.4451690982</v>
       </c>
       <c r="I1682" t="n">
-        <v>71.4166130065918</v>
+        <v>70.89215087890625</v>
       </c>
     </row>
     <row r="1683">
@@ -51686,14 +51686,14 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>泉州银行</t>
+          <t>乐山市商业银行</t>
         </is>
       </c>
       <c r="H1686" t="n">
-        <v>1288.9519951641</v>
+        <v>1250.85566</v>
       </c>
       <c r="I1686" t="n">
-        <v>69.28489151000977</v>
+        <v>69.0506607055664</v>
       </c>
     </row>
     <row r="1687">
@@ -51719,14 +51719,14 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>常熟银行</t>
         </is>
       </c>
       <c r="H1687" t="n">
-        <v>3623.1922172036</v>
+        <v>2086.85255</v>
       </c>
       <c r="I1687" t="n">
-        <v>70.43357162475586</v>
+        <v>70.82063903808594</v>
       </c>
     </row>
     <row r="1688">
@@ -52549,14 +52549,14 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H1713" t="n">
-        <v>2101.53899</v>
+        <v>3602.32214</v>
       </c>
       <c r="I1713" t="n">
-        <v>72.16022033691407</v>
+        <v>70.82705307006836</v>
       </c>
     </row>
     <row r="1714">
@@ -52818,14 +52818,14 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H1722" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I1722" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="1723">
@@ -52851,14 +52851,14 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H1723" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I1723" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="1724">
@@ -54242,14 +54242,14 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1766" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1766" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1767">
@@ -54643,14 +54643,14 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1779" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1779" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1780">
@@ -55025,14 +55025,14 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1791" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1791" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1792">
@@ -55624,14 +55624,14 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1810" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1810" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1811">
@@ -56082,14 +56082,14 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1826" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1826" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1827">
@@ -56596,14 +56596,14 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H1842" t="n">
-        <v>4374.4056093012</v>
+        <v>4198.57215</v>
       </c>
       <c r="I1842" t="n">
-        <v>73.31181335449219</v>
+        <v>72.61577911376953</v>
       </c>
     </row>
     <row r="1843">
@@ -56662,14 +56662,14 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H1844" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I1844" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="1845">
@@ -57002,14 +57002,14 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>江西银行</t>
         </is>
       </c>
       <c r="H1856" t="n">
-        <v>5478.13444</v>
+        <v>4586.9281</v>
       </c>
       <c r="I1856" t="n">
-        <v>74.07013702392578</v>
+        <v>74.43367462158203</v>
       </c>
     </row>
     <row r="1857">
@@ -58234,14 +58234,14 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1898" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1898" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1899">
@@ -58352,14 +58352,14 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1902" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1902" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1903">
@@ -58437,14 +58437,14 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1905" t="n">
-        <v>4157.94132</v>
+        <v>7042.34728</v>
       </c>
       <c r="I1905" t="n">
-        <v>72.23526229858399</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="1906">
@@ -58470,14 +58470,14 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>九江银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1906" t="n">
-        <v>4157.94132</v>
+        <v>7042.34728</v>
       </c>
       <c r="I1906" t="n">
-        <v>72.23526229858399</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="1907">
@@ -58621,14 +58621,14 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>长沙银行</t>
         </is>
       </c>
       <c r="H1911" t="n">
-        <v>2367.6310819006</v>
+        <v>7042.34728</v>
       </c>
       <c r="I1911" t="n">
-        <v>71.56450576782227</v>
+        <v>72.41959838867187</v>
       </c>
     </row>
     <row r="1912">
@@ -58687,14 +58687,14 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H1913" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I1913" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="1914">
@@ -58819,14 +58819,14 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H1917" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I1917" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="1918">
@@ -59211,14 +59211,14 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H1931" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I1931" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="1932">
@@ -59395,14 +59395,14 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1937" t="n">
-        <v>7042.34728</v>
+        <v>5986.03617</v>
       </c>
       <c r="I1937" t="n">
-        <v>72.41959838867187</v>
+        <v>73.77044067382812</v>
       </c>
     </row>
     <row r="1938">
@@ -59513,14 +59513,14 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>江苏江南农村商业银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="H1941" t="n">
-        <v>4374.4056093012</v>
+        <v>4198.57215</v>
       </c>
       <c r="I1941" t="n">
-        <v>73.31181335449219</v>
+        <v>72.61577911376953</v>
       </c>
     </row>
     <row r="1942">
@@ -60197,14 +60197,14 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H1963" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I1963" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="1964">
@@ -60631,14 +60631,14 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1977" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1977" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1978">
@@ -60664,14 +60664,14 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1978" t="n">
-        <v>7779.92324</v>
+        <v>2871.8261304744</v>
       </c>
       <c r="I1978" t="n">
-        <v>72.81662597656251</v>
+        <v>71.84916534423829</v>
       </c>
     </row>
     <row r="1979">
@@ -60697,14 +60697,14 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1979" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1979" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1980">
@@ -61046,14 +61046,14 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>东莞农村商业银行</t>
+          <t>广州银行</t>
         </is>
       </c>
       <c r="H1990" t="n">
-        <v>5484.01955</v>
+        <v>6416.319849394699</v>
       </c>
       <c r="I1990" t="n">
-        <v>73.60751953125001</v>
+        <v>74.29471054077149</v>
       </c>
     </row>
     <row r="1991">
@@ -61079,14 +61079,14 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1991" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I1991" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="1992">
@@ -61211,14 +61211,14 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>富滇银行</t>
+          <t>广西北部湾银行</t>
         </is>
       </c>
       <c r="H1995" t="n">
-        <v>3068.2161</v>
+        <v>3052.78971</v>
       </c>
       <c r="I1995" t="n">
-        <v>70.79840774536133</v>
+        <v>70.56755905151367</v>
       </c>
     </row>
     <row r="1996">
@@ -61409,14 +61409,14 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>齐鲁银行</t>
+          <t>九台农村商业银行</t>
         </is>
       </c>
       <c r="H2001" t="n">
-        <v>3602.32214</v>
+        <v>2003.6327</v>
       </c>
       <c r="I2001" t="n">
-        <v>70.82705307006836</v>
+        <v>70.35448837280273</v>
       </c>
     </row>
     <row r="2002">
@@ -61442,14 +61442,14 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>昆仑银行</t>
+          <t>广东顺德农村商业银行</t>
         </is>
       </c>
       <c r="H2002" t="n">
-        <v>3498.8397986131</v>
+        <v>3673.1224047853</v>
       </c>
       <c r="I2002" t="n">
-        <v>71.55883026123047</v>
+        <v>71.46554641723633</v>
       </c>
     </row>
     <row r="2003">
@@ -62428,14 +62428,14 @@
       </c>
       <c r="G2034" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2034" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2034" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2035">
@@ -62961,14 +62961,14 @@
       </c>
       <c r="G2051" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2051" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2051" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2052">
@@ -63093,14 +63093,14 @@
       </c>
       <c r="G2055" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2055" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2055" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2056">
@@ -63282,14 +63282,14 @@
       </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H2062" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I2062" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="2063">
@@ -63381,14 +63381,14 @@
       </c>
       <c r="G2065" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H2065" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I2065" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="2066">
@@ -63509,14 +63509,14 @@
       </c>
       <c r="G2071" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2071" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2071" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2072">
@@ -63542,14 +63542,14 @@
       </c>
       <c r="G2072" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2072" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2072" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2073">
@@ -63575,14 +63575,14 @@
       </c>
       <c r="G2073" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2073" t="n">
-        <v>16267.49</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2073" t="n">
-        <v>79.67893371582031</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2074">
@@ -63948,14 +63948,14 @@
       </c>
       <c r="G2086" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2086" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2086" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2087">
@@ -64080,14 +64080,14 @@
       </c>
       <c r="G2090" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H2090" t="n">
-        <v>10292.83654</v>
+        <v>6524.33674</v>
       </c>
       <c r="I2090" t="n">
-        <v>74.70652618408204</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="2091">
@@ -64113,14 +64113,14 @@
       </c>
       <c r="G2091" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2091" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2091" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2092">
@@ -64146,14 +64146,14 @@
       </c>
       <c r="G2092" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H2092" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I2092" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="2093">
@@ -64212,14 +64212,14 @@
       </c>
       <c r="G2094" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H2094" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I2094" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="2095">
@@ -64410,14 +64410,14 @@
       </c>
       <c r="G2100" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H2100" t="n">
-        <v>10292.83654</v>
+        <v>6524.33674</v>
       </c>
       <c r="I2100" t="n">
-        <v>74.70652618408204</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="2101">
@@ -64816,14 +64816,14 @@
       </c>
       <c r="G2114" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2114" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2114" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2115">
@@ -65014,14 +65014,14 @@
       </c>
       <c r="G2120" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2120" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2120" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2121">
@@ -65991,14 +65991,14 @@
       </c>
       <c r="G2153" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2153" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2153" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2154">
@@ -66293,14 +66293,14 @@
       </c>
       <c r="G2163" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2163" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2163" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2164">
@@ -66666,14 +66666,14 @@
       </c>
       <c r="G2176" t="inlineStr">
         <is>
-          <t>盛京银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H2176" t="n">
-        <v>10379.58375</v>
+        <v>5484.01955</v>
       </c>
       <c r="I2176" t="n">
-        <v>74.7919189453125</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="2177">
@@ -67081,14 +67081,14 @@
       </c>
       <c r="G2189" t="inlineStr">
         <is>
-          <t>中山农村商业银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H2189" t="n">
-        <v>1447.1524530825</v>
+        <v>1605.1613139541</v>
       </c>
       <c r="I2189" t="n">
-        <v>68.341064453125</v>
+        <v>68.03742141723633</v>
       </c>
     </row>
     <row r="2190">
@@ -67813,14 +67813,14 @@
       </c>
       <c r="G2215" t="inlineStr">
         <is>
-          <t>长沙银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H2215" t="n">
-        <v>7042.34728</v>
+        <v>5986.03617</v>
       </c>
       <c r="I2215" t="n">
-        <v>72.41959838867187</v>
+        <v>73.77044067382812</v>
       </c>
     </row>
     <row r="2216">
@@ -68063,14 +68063,14 @@
       </c>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2223" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2223" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2224">
@@ -68313,14 +68313,14 @@
       </c>
       <c r="G2231" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H2231" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I2231" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="2232">
@@ -68733,14 +68733,14 @@
       </c>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H2245" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I2245" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="2246">
@@ -68832,14 +68832,14 @@
       </c>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>河北银行</t>
         </is>
       </c>
       <c r="H2248" t="n">
-        <v>2367.6310819006</v>
+        <v>3957.01873</v>
       </c>
       <c r="I2248" t="n">
-        <v>71.56450576782227</v>
+        <v>71.83090286254883</v>
       </c>
     </row>
     <row r="2249">
@@ -68898,14 +68898,14 @@
       </c>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>东莞农村商业银行</t>
         </is>
       </c>
       <c r="H2250" t="n">
-        <v>10292.83654</v>
+        <v>5484.01955</v>
       </c>
       <c r="I2250" t="n">
-        <v>74.70652618408204</v>
+        <v>73.60751953125001</v>
       </c>
     </row>
     <row r="2251">
@@ -69134,14 +69134,14 @@
       </c>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>恒丰银行</t>
         </is>
       </c>
       <c r="H2258" t="n">
-        <v>10278.71646</v>
+        <v>11141.55</v>
       </c>
       <c r="I2258" t="n">
-        <v>73.57874984741211</v>
+        <v>74.73774871826171</v>
       </c>
     </row>
     <row r="2259">
@@ -69299,14 +69299,14 @@
       </c>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2263" t="n">
-        <v>6877.60199</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2263" t="n">
-        <v>73.73541717529297</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2264">
@@ -69728,14 +69728,14 @@
       </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2276" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2276" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2277">
@@ -69827,14 +69827,14 @@
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2279" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2279" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2280">
@@ -69893,14 +69893,14 @@
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H2281" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I2281" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="2282">
@@ -69926,14 +69926,14 @@
       </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>汉口银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H2282" t="n">
-        <v>4388.93133</v>
+        <v>4344.9952514524</v>
       </c>
       <c r="I2282" t="n">
-        <v>72.58096771240234</v>
+        <v>73.3477294921875</v>
       </c>
     </row>
     <row r="2283">
@@ -70968,14 +70968,14 @@
       </c>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2314" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2314" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2315">
@@ -71232,14 +71232,14 @@
       </c>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H2322" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I2322" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="2323">
@@ -71473,14 +71473,14 @@
       </c>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H2331" t="n">
-        <v>2101.53899</v>
+        <v>3602.32214</v>
       </c>
       <c r="I2331" t="n">
-        <v>72.16022033691407</v>
+        <v>70.82705307006836</v>
       </c>
     </row>
     <row r="2332">
@@ -71671,14 +71671,14 @@
       </c>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2337" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2337" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2338">
@@ -71704,14 +71704,14 @@
       </c>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>中山农村商业银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H2338" t="n">
-        <v>1447.1524530825</v>
+        <v>1605.1613139541</v>
       </c>
       <c r="I2338" t="n">
-        <v>68.341064453125</v>
+        <v>68.03742141723633</v>
       </c>
     </row>
     <row r="2339">
@@ -71836,14 +71836,14 @@
       </c>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2342" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2342" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2343">
@@ -71869,14 +71869,14 @@
       </c>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2343" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2343" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2344">
@@ -71902,14 +71902,14 @@
       </c>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2344" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2344" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2345">
@@ -71935,14 +71935,14 @@
       </c>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2345" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2345" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2346">
@@ -71968,14 +71968,14 @@
       </c>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2346" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2346" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2347">
@@ -73208,14 +73208,14 @@
       </c>
       <c r="G2384" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2384" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2384" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2385">
@@ -73576,14 +73576,14 @@
       </c>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2396" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2396" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2397">
@@ -73883,14 +73883,14 @@
       </c>
       <c r="G2407" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H2407" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I2407" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="2408">
@@ -74100,14 +74100,14 @@
       </c>
       <c r="G2414" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2414" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2414" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2415">
@@ -74199,14 +74199,14 @@
       </c>
       <c r="G2417" t="inlineStr">
         <is>
-          <t>中原银行</t>
+          <t>重庆银行</t>
         </is>
       </c>
       <c r="H2417" t="n">
-        <v>7570.14075</v>
+        <v>5616.41397</v>
       </c>
       <c r="I2417" t="n">
-        <v>71.84711074829102</v>
+        <v>72.85758819580079</v>
       </c>
     </row>
     <row r="2418">
@@ -74647,14 +74647,14 @@
       </c>
       <c r="G2431" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2431" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2431" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2432">
@@ -74812,14 +74812,14 @@
       </c>
       <c r="G2436" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2436" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2436" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2437">
@@ -74864,14 +74864,14 @@
       </c>
       <c r="G2438" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2438" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2438" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2439">
@@ -74930,14 +74930,14 @@
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2440" t="n">
-        <v>23378.92914</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2440" t="n">
-        <v>81.07348937988282</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2441">
@@ -75161,14 +75161,14 @@
       </c>
       <c r="G2447" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2447" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2447" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2448">
@@ -75440,14 +75440,14 @@
       </c>
       <c r="G2458" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2458" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2458" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2459">
@@ -76124,14 +76124,14 @@
       </c>
       <c r="G2480" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H2480" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I2480" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="2481">
@@ -76157,14 +76157,14 @@
       </c>
       <c r="G2481" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2481" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2481" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2482">
@@ -76190,14 +76190,14 @@
       </c>
       <c r="G2482" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2482" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2482" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2483">
@@ -76223,14 +76223,14 @@
       </c>
       <c r="G2483" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2483" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2483" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2484">
@@ -76322,14 +76322,14 @@
       </c>
       <c r="G2486" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2486" t="n">
-        <v>12717.00698</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2486" t="n">
-        <v>76.9993911743164</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2487">
@@ -76992,14 +76992,14 @@
       </c>
       <c r="G2508" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H2508" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I2508" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="2509">
@@ -77025,14 +77025,14 @@
       </c>
       <c r="G2509" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2509" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2509" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2510">
@@ -77058,14 +77058,14 @@
       </c>
       <c r="G2510" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2510" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2510" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2511">
@@ -77473,14 +77473,14 @@
       </c>
       <c r="G2523" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>甘肃银行</t>
         </is>
       </c>
       <c r="H2523" t="n">
-        <v>3033.39091</v>
+        <v>3423.63788</v>
       </c>
       <c r="I2523" t="n">
-        <v>70.97989501953126</v>
+        <v>71.45707778930664</v>
       </c>
     </row>
     <row r="2524">
@@ -77506,14 +77506,14 @@
       </c>
       <c r="G2524" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2524" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2524" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2525">
@@ -77539,14 +77539,14 @@
       </c>
       <c r="G2525" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2525" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2525" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2526">
@@ -77723,14 +77723,14 @@
       </c>
       <c r="G2531" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2531" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2531" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2532">
@@ -77789,14 +77789,14 @@
       </c>
       <c r="G2533" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H2533" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I2533" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="2534">
@@ -77822,14 +77822,14 @@
       </c>
       <c r="G2534" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H2534" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I2534" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="2535">
@@ -78176,14 +78176,14 @@
       </c>
       <c r="G2546" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2546" t="n">
-        <v>24621.44021</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2546" t="n">
-        <v>82.20588302612305</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2547">
@@ -78209,14 +78209,14 @@
       </c>
       <c r="G2547" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H2547" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I2547" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="2548">
@@ -78360,14 +78360,14 @@
       </c>
       <c r="G2552" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>常熟银行</t>
         </is>
       </c>
       <c r="H2552" t="n">
-        <v>3623.1922172036</v>
+        <v>2086.85255</v>
       </c>
       <c r="I2552" t="n">
-        <v>70.43357162475586</v>
+        <v>70.82063903808594</v>
       </c>
     </row>
     <row r="2553">
@@ -78478,14 +78478,14 @@
       </c>
       <c r="G2556" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H2556" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I2556" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="2557">
@@ -78511,14 +78511,14 @@
       </c>
       <c r="G2557" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2557" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2557" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2558">
@@ -78544,14 +78544,14 @@
       </c>
       <c r="G2558" t="inlineStr">
         <is>
-          <t>重庆三峡银行</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="H2558" t="n">
-        <v>2367.6310819006</v>
+        <v>4163.26107</v>
       </c>
       <c r="I2558" t="n">
-        <v>71.56450576782227</v>
+        <v>72.38654708862305</v>
       </c>
     </row>
     <row r="2559">
@@ -78841,14 +78841,14 @@
       </c>
       <c r="G2567" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2567" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2567" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2568">
@@ -79039,14 +79039,14 @@
       </c>
       <c r="G2573" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2573" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2573" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2574">
@@ -79275,14 +79275,14 @@
       </c>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2581" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2581" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2582">
@@ -79473,14 +79473,14 @@
       </c>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>中山农村商业银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H2587" t="n">
-        <v>1447.1524530825</v>
+        <v>1605.1613139541</v>
       </c>
       <c r="I2587" t="n">
-        <v>68.341064453125</v>
+        <v>68.03742141723633</v>
       </c>
     </row>
     <row r="2588">
@@ -79539,14 +79539,14 @@
       </c>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2589" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2589" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2590">
@@ -79789,14 +79789,14 @@
       </c>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2597" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2597" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2598">
@@ -79992,14 +79992,14 @@
       </c>
       <c r="G2604" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="H2604" t="n">
-        <v>12717.00698</v>
+        <v>16267.49</v>
       </c>
       <c r="I2604" t="n">
-        <v>76.9993911743164</v>
+        <v>79.67893371582031</v>
       </c>
     </row>
     <row r="2605">
@@ -80313,14 +80313,14 @@
       </c>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2615" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2615" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2616">
@@ -80346,14 +80346,14 @@
       </c>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2616" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2616" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2617">
@@ -80992,14 +80992,14 @@
       </c>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2636" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2636" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2637">
@@ -81058,14 +81058,14 @@
       </c>
       <c r="G2638" t="inlineStr">
         <is>
-          <t>朝阳银行</t>
+          <t>凉山农村商业银行</t>
         </is>
       </c>
       <c r="H2638" t="n">
-        <v>1052.3074948769</v>
+        <v>809.8696115547999</v>
       </c>
       <c r="I2638" t="n">
-        <v>65.94909172058105</v>
+        <v>66.18742141723632</v>
       </c>
     </row>
     <row r="2639">
@@ -81195,14 +81195,14 @@
       </c>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>渤海银行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H2643" t="n">
-        <v>13896.75274</v>
+        <v>15170.75765</v>
       </c>
       <c r="I2643" t="n">
-        <v>78.48693618774413</v>
+        <v>78.45937347412109</v>
       </c>
     </row>
     <row r="2644">
@@ -81346,14 +81346,14 @@
       </c>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2648" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2648" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2649">
@@ -81841,14 +81841,14 @@
       </c>
       <c r="G2663" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2663" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2663" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2664">
@@ -82006,14 +82006,14 @@
       </c>
       <c r="G2668" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2668" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2668" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2669">
@@ -82138,14 +82138,14 @@
       </c>
       <c r="G2672" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2672" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2672" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2673">
@@ -82270,14 +82270,14 @@
       </c>
       <c r="G2676" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2676" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2676" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2677">
@@ -82303,14 +82303,14 @@
       </c>
       <c r="G2677" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2677" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2677" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2678">
@@ -82402,14 +82402,14 @@
       </c>
       <c r="G2680" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2680" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2680" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2681">
@@ -82435,14 +82435,14 @@
       </c>
       <c r="G2681" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2681" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2681" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2682">
@@ -82534,14 +82534,14 @@
       </c>
       <c r="G2684" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2684" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2684" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2685">
@@ -82732,14 +82732,14 @@
       </c>
       <c r="G2690" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>陕西秦农农村商业银行</t>
         </is>
       </c>
       <c r="H2690" t="n">
-        <v>3957.01873</v>
+        <v>2809.8434891808</v>
       </c>
       <c r="I2690" t="n">
-        <v>71.83090286254883</v>
+        <v>71.27975234985351</v>
       </c>
     </row>
     <row r="2691">
@@ -82897,14 +82897,14 @@
       </c>
       <c r="G2695" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2695" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2695" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2696">
@@ -82963,14 +82963,14 @@
       </c>
       <c r="G2697" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2697" t="n">
-        <v>24621.44021</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2697" t="n">
-        <v>82.20588302612305</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2698">
@@ -83194,14 +83194,14 @@
       </c>
       <c r="G2704" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H2704" t="n">
-        <v>10278.71646</v>
+        <v>6524.33674</v>
       </c>
       <c r="I2704" t="n">
-        <v>73.57874984741211</v>
+        <v>73.37460708618164</v>
       </c>
     </row>
     <row r="2705">
@@ -85160,14 +85160,14 @@
       </c>
       <c r="G2764" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H2764" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I2764" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="2765">
@@ -85608,14 +85608,14 @@
       </c>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>重庆农村商业银行</t>
         </is>
       </c>
       <c r="H2778" t="n">
-        <v>10292.83654</v>
+        <v>11359.26443</v>
       </c>
       <c r="I2778" t="n">
-        <v>74.70652618408204</v>
+        <v>74.74439849853516</v>
       </c>
     </row>
     <row r="2779">
@@ -85707,14 +85707,14 @@
       </c>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="H2781" t="n">
-        <v>2101.53899</v>
+        <v>3602.32214</v>
       </c>
       <c r="I2781" t="n">
-        <v>72.16022033691407</v>
+        <v>70.82705307006836</v>
       </c>
     </row>
     <row r="2782">
@@ -85773,14 +85773,14 @@
       </c>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>绍兴银行</t>
+          <t>江苏昆山农村商业银行</t>
         </is>
       </c>
       <c r="H2783" t="n">
-        <v>1538.8117</v>
+        <v>1213.8318409535</v>
       </c>
       <c r="I2783" t="n">
-        <v>68.99558486938477</v>
+        <v>67.94264984130859</v>
       </c>
     </row>
     <row r="2784">
@@ -85872,14 +85872,14 @@
       </c>
       <c r="G2786" t="inlineStr">
         <is>
-          <t>江西银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H2786" t="n">
-        <v>4586.9281</v>
+        <v>4374.4056093012</v>
       </c>
       <c r="I2786" t="n">
-        <v>74.43367462158203</v>
+        <v>73.31181335449219</v>
       </c>
     </row>
     <row r="2787">
@@ -85971,14 +85971,14 @@
       </c>
       <c r="G2789" t="inlineStr">
         <is>
-          <t>泉州银行</t>
+          <t>乐山市商业银行</t>
         </is>
       </c>
       <c r="H2789" t="n">
-        <v>1288.9519951641</v>
+        <v>1250.85566</v>
       </c>
       <c r="I2789" t="n">
-        <v>69.28489151000977</v>
+        <v>69.0506607055664</v>
       </c>
     </row>
     <row r="2790">
@@ -86004,14 +86004,14 @@
       </c>
       <c r="G2790" t="inlineStr">
         <is>
-          <t>绍兴银行</t>
+          <t>江苏昆山农村商业银行</t>
         </is>
       </c>
       <c r="H2790" t="n">
-        <v>1538.8117</v>
+        <v>1213.8318409535</v>
       </c>
       <c r="I2790" t="n">
-        <v>68.99558486938477</v>
+        <v>67.94264984130859</v>
       </c>
     </row>
     <row r="2791">
@@ -86037,14 +86037,14 @@
       </c>
       <c r="G2791" t="inlineStr">
         <is>
-          <t>绍兴银行</t>
+          <t>江苏昆山农村商业银行</t>
         </is>
       </c>
       <c r="H2791" t="n">
-        <v>1538.8117</v>
+        <v>1213.8318409535</v>
       </c>
       <c r="I2791" t="n">
-        <v>68.99558486938477</v>
+        <v>67.94264984130859</v>
       </c>
     </row>
     <row r="2792">
@@ -86532,14 +86532,14 @@
       </c>
       <c r="G2806" t="inlineStr">
         <is>
-          <t>甘肃银行</t>
+          <t>青农商行</t>
         </is>
       </c>
       <c r="H2806" t="n">
-        <v>3423.63788</v>
+        <v>4068.11073</v>
       </c>
       <c r="I2806" t="n">
-        <v>71.45707778930664</v>
+        <v>71.71343841552735</v>
       </c>
     </row>
     <row r="2807">
@@ -86938,14 +86938,14 @@
       </c>
       <c r="G2820" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H2820" t="n">
-        <v>11359.26443</v>
+        <v>10379.58375</v>
       </c>
       <c r="I2820" t="n">
-        <v>74.74439849853516</v>
+        <v>74.7919189453125</v>
       </c>
     </row>
     <row r="2821">
@@ -87169,14 +87169,14 @@
       </c>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H2827" t="n">
-        <v>16267.49</v>
+        <v>13896.75274</v>
       </c>
       <c r="I2827" t="n">
-        <v>79.67893371582031</v>
+        <v>78.48693618774413</v>
       </c>
     </row>
     <row r="2828">
@@ -87202,14 +87202,14 @@
       </c>
       <c r="G2828" t="inlineStr">
         <is>
-          <t>珠海华润银行</t>
+          <t>昆仑银行</t>
         </is>
       </c>
       <c r="H2828" t="n">
-        <v>2352.2570852331</v>
+        <v>3498.8397986131</v>
       </c>
       <c r="I2828" t="n">
-        <v>72.3505729675293</v>
+        <v>71.55883026123047</v>
       </c>
     </row>
     <row r="2829">
@@ -87608,14 +87608,14 @@
       </c>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H2842" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I2842" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="2843">
@@ -87641,14 +87641,14 @@
       </c>
       <c r="G2843" t="inlineStr">
         <is>
-          <t>成都银行</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="H2843" t="n">
-        <v>6524.33674</v>
+        <v>5906.80344</v>
       </c>
       <c r="I2843" t="n">
-        <v>73.37460708618164</v>
+        <v>74.31083297729492</v>
       </c>
     </row>
     <row r="2844">
